--- a/Digital_Editions/4Q266/457_1240_Frg_1_d/457_1240.xlsx
+++ b/Digital_Editions/4Q266/457_1240_Frg_1_d/457_1240.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Tucker-James/github/SQE-Damascus/Digital_Editions/4Q266/457_1240_Frg_1_d/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3985316E-B24E-974C-A134-0AF6E44772A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-20" yWindow="10960" windowWidth="38400" windowHeight="10640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHARs" sheetId="1" r:id="rId1"/>
     <sheet name="SIGNs" sheetId="2" r:id="rId2"/>
     <sheet name="Sub_Frags" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -220,13 +234,73 @@
   </si>
   <si>
     <t>02_Frg_1_d_ROI.tif:2573-3187:1</t>
+  </si>
+  <si>
+    <t>י</t>
+  </si>
+  <si>
+    <t>ו</t>
+  </si>
+  <si>
+    <t>ח</t>
+  </si>
+  <si>
+    <t>ת</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>ה</t>
+  </si>
+  <si>
+    <t>ב</t>
+  </si>
+  <si>
+    <t>ד</t>
+  </si>
+  <si>
+    <t>מ</t>
+  </si>
+  <si>
+    <t>◦</t>
+  </si>
+  <si>
+    <t>ש</t>
+  </si>
+  <si>
+    <t>ל</t>
+  </si>
+  <si>
+    <t>probable_letter</t>
+  </si>
+  <si>
+    <t>certain</t>
+  </si>
+  <si>
+    <t>possible_letter</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>relevant_h</t>
+  </si>
+  <si>
+    <t>DAMAGED</t>
+  </si>
+  <si>
+    <t>NOT_DAMAGED</t>
+  </si>
+  <si>
+    <t>02_Frg_1_d_ROI.tif:0004-2607-3690:4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +337,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -309,7 +391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,9 +423,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,6 +475,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,17 +668,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -637,1167 +755,1072 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C2">
         <f>SIGNs!A2</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>80</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Q2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C3">
         <f>SIGNs!A3</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>81</v>
       </c>
       <c r="P3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W3" t="s">
+        <v>86</v>
+      </c>
+      <c r="X3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C4">
         <f>SIGNs!A4</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>81</v>
       </c>
       <c r="P4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>70</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>85</v>
+      </c>
+      <c r="W4" t="s">
+        <v>86</v>
+      </c>
+      <c r="X4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C5">
         <f>SIGNs!A5</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
       </c>
       <c r="P5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>69</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
+        <v>85</v>
+      </c>
+      <c r="W5" t="s">
+        <v>86</v>
+      </c>
+      <c r="X5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C6">
         <f>SIGNs!A6</f>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
       </c>
       <c r="P6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7">
+        <f>SIGNs!A22</f>
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>72</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C8">
         <f>SIGNs!A7</f>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
+        <v>85</v>
+      </c>
+      <c r="W8" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C9">
         <f>SIGNs!A8</f>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R9" t="s">
+        <v>68</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9" t="s">
+        <v>85</v>
+      </c>
+      <c r="W9" t="s">
+        <v>86</v>
+      </c>
+      <c r="X9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C10">
         <f>SIGNs!A9</f>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10" t="s">
+        <v>85</v>
+      </c>
+      <c r="W10" t="s">
+        <v>86</v>
+      </c>
+      <c r="X10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C11">
         <f>SIGNs!A10</f>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>69</v>
+      </c>
+      <c r="R11" t="s">
+        <v>68</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11" t="s">
+        <v>85</v>
+      </c>
+      <c r="W11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C12">
         <f>SIGNs!A11</f>
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>73</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12" t="s">
+        <v>85</v>
+      </c>
+      <c r="W12" t="s">
+        <v>86</v>
+      </c>
+      <c r="X12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f>SIGNs!A23</f>
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>72</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13" t="s">
+        <v>85</v>
+      </c>
+      <c r="W13" t="s">
+        <v>86</v>
+      </c>
+      <c r="X13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C14">
         <f>SIGNs!A12</f>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>74</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14" t="s">
+        <v>85</v>
+      </c>
+      <c r="W14" t="s">
+        <v>86</v>
+      </c>
+      <c r="X14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C15">
         <f>SIGNs!A13</f>
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15" t="s">
+        <v>85</v>
+      </c>
+      <c r="W15" t="s">
+        <v>86</v>
+      </c>
+      <c r="X15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C16">
         <f>SIGNs!A14</f>
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16" t="s">
+        <v>85</v>
+      </c>
+      <c r="W16" t="s">
+        <v>86</v>
+      </c>
+      <c r="X16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f>SIGNs!A24</f>
+        <v>23</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>72</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17" t="s">
+        <v>85</v>
+      </c>
+      <c r="W17" t="s">
+        <v>86</v>
+      </c>
+      <c r="X17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C18">
         <f>SIGNs!A15</f>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>76</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18" t="s">
+        <v>85</v>
+      </c>
+      <c r="W18" t="s">
+        <v>86</v>
+      </c>
+      <c r="X18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C19">
         <f>SIGNs!A16</f>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:16">
-      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>76</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19" t="s">
+        <v>85</v>
+      </c>
+      <c r="W19" t="s">
+        <v>86</v>
+      </c>
+      <c r="X19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C20">
         <f>SIGNs!A17</f>
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16">
-      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>14</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>76</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20" t="s">
+        <v>85</v>
+      </c>
+      <c r="W20" t="s">
+        <v>86</v>
+      </c>
+      <c r="X20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C21">
         <f>SIGNs!A18</f>
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16">
-      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>82</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>69</v>
+      </c>
+      <c r="R21" t="s">
+        <v>68</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21" t="s">
+        <v>85</v>
+      </c>
+      <c r="W21" t="s">
+        <v>86</v>
+      </c>
+      <c r="X21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f>SIGNs!A25</f>
+        <v>24</v>
+      </c>
+      <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>83</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>77</v>
+      </c>
+      <c r="R22" t="s">
+        <v>78</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22" t="s">
+        <v>85</v>
+      </c>
+      <c r="W22" t="s">
+        <v>86</v>
+      </c>
+      <c r="X22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C23">
         <f>SIGNs!A19</f>
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="3:16">
-      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <v>17</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>83</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>79</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23" t="s">
+        <v>85</v>
+      </c>
+      <c r="W23" t="s">
+        <v>86</v>
+      </c>
+      <c r="X23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C24">
         <f>SIGNs!A20</f>
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16">
-      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>18</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>76</v>
+      </c>
+      <c r="R24" t="s">
+        <v>74</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24" t="s">
+        <v>85</v>
+      </c>
+      <c r="W24" t="s">
+        <v>86</v>
+      </c>
+      <c r="X24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C25">
         <f>SIGNs!A21</f>
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16">
-      <c r="C22">
-        <f>SIGNs!A22</f>
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16">
-      <c r="C23">
-        <f>SIGNs!A23</f>
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16">
-      <c r="C24">
-        <f>SIGNs!A24</f>
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16">
-      <c r="C25">
-        <f>SIGNs!A25</f>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>19</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>83</v>
+      </c>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>83</v>
       </c>
       <c r="P25">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>77</v>
+      </c>
+      <c r="R25" t="s">
+        <v>69</v>
+      </c>
+      <c r="S25" t="s">
+        <v>68</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25" t="s">
+        <v>85</v>
+      </c>
+      <c r="W25" t="s">
+        <v>86</v>
+      </c>
+      <c r="X25" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="312">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y26">
+    <sortCondition ref="G1"/>
+  </sortState>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K25 N1:N25 K1:L24" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"null,True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M25" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O24" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"null,certain,probable_letter,possible_letter"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:X25" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O4">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W4">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X4">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R4">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T4">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W5">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X5">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S5">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V6">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X6">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S6">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T6">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M7">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N7">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O7">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V7">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W7">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X7">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q7">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R7">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S7">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K8">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V8">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W8">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X8">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q8">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R8">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S8">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T8">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O9">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V9">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W9">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X9">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R9">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S9">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T9">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L10">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N10">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V10">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W10">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X10">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q10">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T10">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L11">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N11">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O11">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V11">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W11">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X11">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q11">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R11">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S11">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T11">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I12">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L12">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V12">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W12">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X12">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q12">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R12">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S12">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T12">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L13">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M13">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N13">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O13">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V13">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W13">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X13">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q13">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R13">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S13">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T13">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M14">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V14">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W14">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X14">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q14">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R14">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S14">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T14">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K15">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L15">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M15">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N15">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O15">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V15">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W15">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X15">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q15">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R15">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S15">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T15">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K16">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L16">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M16">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N16">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O16">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V16">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W16">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X16">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q16">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R16">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S16">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T16">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I17">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L17">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M17">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N17">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O17">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V17">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W17">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X17">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q17">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R17">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S17">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T17">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K18">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M18">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N18">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O18">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V18">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W18">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X18">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q18">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R18">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S18">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T18">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I19">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K19">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L19">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M19">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N19">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O19">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V19">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W19">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X19">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q19">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R19">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S19">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T19">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K20">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L20">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M20">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N20">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O20">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V20">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W20">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X20">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q20">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R20">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S20">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T20">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I21">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K21">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L21">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M21">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N21">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O21">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V21">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W21">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X21">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q21">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R21">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S21">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T21">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K22">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L22">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M22">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N22">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O22">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V22">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W22">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X22">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q22">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R22">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S22">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T22">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I23">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K23">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L23">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M23">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N23">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O23">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V23">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W23">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X23">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q23">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R23">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S23">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T23">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I24">
-      <formula1>"transformed,reinked,retraced,reinked?,retraced?,intralinear,creased,erased"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K24">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L24">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M24">
-      <formula1>"null,False,True,relevant_w,relevant_h"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N24">
-      <formula1>"null,True,False"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O24">
-      <formula1>"null,certain,probable_letter,possible_letter"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V24">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W24">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X24">
-      <formula1>"DAMAGED,DAMAGED_STILL_READ,NOT_DAMAGED"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q24">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R24">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S24">
-      <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:T6 R7:T7 Q25:R25 Q8:T18 Q20:T24 S19:T19" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"א,ב,ג,ד,ה,ו,ז,ח,ט,י,כ,ך,ל,מ,ם,נ,ן,ס,ע,פ,ף,צ,ץ,ק,ר,ש,ת,◦,l,s,m,_"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1805,9 +1828,9 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1863,7 +1886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1874,7 +1897,7 @@
         <v>1560</v>
       </c>
       <c r="F2">
-        <v>40.12</v>
+        <v>40.119999999999997</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -1895,25 +1918,25 @@
         <v>30</v>
       </c>
       <c r="M2">
-        <v>58.676</v>
+        <v>58.676000000000002</v>
       </c>
       <c r="N2">
-        <v>33.851</v>
+        <v>33.850999999999999</v>
       </c>
       <c r="O2">
-        <v>0.729</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="P2">
-        <v>1.733</v>
+        <v>1.7330000000000001</v>
       </c>
       <c r="Q2">
-        <v>0.577</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1924,7 +1947,7 @@
         <v>4545</v>
       </c>
       <c r="F3">
-        <v>44.902</v>
+        <v>44.902000000000001</v>
       </c>
       <c r="G3">
         <v>18</v>
@@ -1945,25 +1968,25 @@
         <v>101</v>
       </c>
       <c r="M3">
-        <v>113.966</v>
+        <v>113.96599999999999</v>
       </c>
       <c r="N3">
-        <v>50.777</v>
+        <v>50.777000000000001</v>
       </c>
       <c r="O3">
         <v>0.67</v>
       </c>
       <c r="P3">
-        <v>2.244</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="Q3">
-        <v>0.446</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1974,7 +1997,7 @@
         <v>13475</v>
       </c>
       <c r="F4">
-        <v>54.681</v>
+        <v>54.680999999999997</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -1995,16 +2018,16 @@
         <v>175</v>
       </c>
       <c r="M4">
-        <v>197.466</v>
+        <v>197.46600000000001</v>
       </c>
       <c r="N4">
-        <v>86.88500000000001</v>
+        <v>86.885000000000005</v>
       </c>
       <c r="O4">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="P4">
-        <v>2.273</v>
+        <v>2.2730000000000001</v>
       </c>
       <c r="Q4">
         <v>0.44</v>
@@ -2013,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2024,7 +2047,7 @@
         <v>15252</v>
       </c>
       <c r="F5">
-        <v>46.307</v>
+        <v>46.307000000000002</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -2048,22 +2071,22 @@
         <v>185.054</v>
       </c>
       <c r="N5">
-        <v>104.939</v>
+        <v>104.93899999999999</v>
       </c>
       <c r="O5">
-        <v>0.725</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="P5">
-        <v>1.763</v>
+        <v>1.7629999999999999</v>
       </c>
       <c r="Q5">
-        <v>0.5669999999999999</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="R5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2074,7 +2097,7 @@
         <v>49728</v>
       </c>
       <c r="F6">
-        <v>48.185</v>
+        <v>48.185000000000002</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -2101,19 +2124,19 @@
         <v>216.649</v>
       </c>
       <c r="O6">
-        <v>0.768</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="P6">
         <v>1.349</v>
       </c>
       <c r="Q6">
-        <v>0.741</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2124,7 +2147,7 @@
         <v>13038</v>
       </c>
       <c r="F7">
-        <v>32.227</v>
+        <v>32.226999999999997</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -2151,19 +2174,19 @@
         <v>119.608</v>
       </c>
       <c r="O7">
-        <v>0.781</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="P7">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Q7">
-        <v>0.862</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="R7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2174,7 +2197,7 @@
         <v>189</v>
       </c>
       <c r="F8">
-        <v>40.164</v>
+        <v>40.164000000000001</v>
       </c>
       <c r="G8">
         <v>25</v>
@@ -2195,25 +2218,25 @@
         <v>9</v>
       </c>
       <c r="M8">
-        <v>23.696</v>
+        <v>23.696000000000002</v>
       </c>
       <c r="N8">
-        <v>10.155</v>
+        <v>10.154999999999999</v>
       </c>
       <c r="O8">
         <v>0.66</v>
       </c>
       <c r="P8">
-        <v>2.333</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="Q8">
-        <v>0.429</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="R8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2224,7 +2247,7 @@
         <v>374</v>
       </c>
       <c r="F9">
-        <v>38.056</v>
+        <v>38.055999999999997</v>
       </c>
       <c r="G9">
         <v>18</v>
@@ -2245,25 +2268,25 @@
         <v>17</v>
       </c>
       <c r="M9">
-        <v>24.824</v>
+        <v>24.824000000000002</v>
       </c>
       <c r="N9">
-        <v>19.182</v>
+        <v>19.181999999999999</v>
       </c>
       <c r="O9">
-        <v>0.772</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="P9">
         <v>1.294</v>
       </c>
       <c r="Q9">
-        <v>0.773</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="R9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2274,7 +2297,7 @@
         <v>3555</v>
       </c>
       <c r="F10">
-        <v>36.551</v>
+        <v>36.551000000000002</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -2295,25 +2318,25 @@
         <v>79</v>
       </c>
       <c r="M10">
-        <v>89.142</v>
+        <v>89.141999999999996</v>
       </c>
       <c r="N10">
-        <v>50.777</v>
+        <v>50.777000000000001</v>
       </c>
       <c r="O10">
-        <v>0.726</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="P10">
         <v>1.756</v>
       </c>
       <c r="Q10">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="R10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2324,7 +2347,7 @@
         <v>25092</v>
       </c>
       <c r="F11">
-        <v>44.834</v>
+        <v>44.834000000000003</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -2351,19 +2374,19 @@
         <v>172.642</v>
       </c>
       <c r="O11">
-        <v>0.784</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="P11">
-        <v>1.072</v>
+        <v>1.0720000000000001</v>
       </c>
       <c r="Q11">
-        <v>0.9330000000000001</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="R11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2374,7 +2397,7 @@
         <v>16422</v>
       </c>
       <c r="F12">
-        <v>43.219</v>
+        <v>43.219000000000001</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -2395,25 +2418,25 @@
         <v>138</v>
       </c>
       <c r="M12">
-        <v>155.716</v>
+        <v>155.71600000000001</v>
       </c>
       <c r="N12">
-        <v>134.277</v>
+        <v>134.27699999999999</v>
       </c>
       <c r="O12">
-        <v>0.781</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="P12">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Q12">
-        <v>0.862</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="R12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2424,7 +2447,7 @@
         <v>9030</v>
       </c>
       <c r="F13">
-        <v>38.783</v>
+        <v>38.783000000000001</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -2445,25 +2468,25 @@
         <v>129</v>
       </c>
       <c r="M13">
-        <v>145.561</v>
+        <v>145.56100000000001</v>
       </c>
       <c r="N13">
-        <v>78.98699999999999</v>
+        <v>78.986999999999995</v>
       </c>
       <c r="O13">
-        <v>0.716</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="P13">
         <v>1.843</v>
       </c>
       <c r="Q13">
-        <v>0.543</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="R13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2474,7 +2497,7 @@
         <v>26578</v>
       </c>
       <c r="F14">
-        <v>54.467</v>
+        <v>54.466999999999999</v>
       </c>
       <c r="G14">
         <v>12</v>
@@ -2495,25 +2518,25 @@
         <v>194</v>
       </c>
       <c r="M14">
-        <v>218.906</v>
+        <v>218.90600000000001</v>
       </c>
       <c r="N14">
-        <v>154.588</v>
+        <v>154.58799999999999</v>
       </c>
       <c r="O14">
-        <v>0.762</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="P14">
-        <v>1.416</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="Q14">
-        <v>0.706</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="R14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2524,7 +2547,7 @@
         <v>12927</v>
       </c>
       <c r="F15">
-        <v>36.807</v>
+        <v>36.807000000000002</v>
       </c>
       <c r="G15">
         <v>12</v>
@@ -2548,22 +2571,22 @@
         <v>156.845</v>
       </c>
       <c r="N15">
-        <v>104.939</v>
+        <v>104.93899999999999</v>
       </c>
       <c r="O15">
         <v>0.755</v>
       </c>
       <c r="P15">
-        <v>1.495</v>
+        <v>1.4950000000000001</v>
       </c>
       <c r="Q15">
-        <v>0.669</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="R15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2574,7 +2597,7 @@
         <v>2528</v>
       </c>
       <c r="F16">
-        <v>26.757</v>
+        <v>26.757000000000001</v>
       </c>
       <c r="G16">
         <v>14</v>
@@ -2595,25 +2618,25 @@
         <v>32</v>
       </c>
       <c r="M16">
-        <v>89.142</v>
+        <v>89.141999999999996</v>
       </c>
       <c r="N16">
-        <v>36.108</v>
+        <v>36.107999999999997</v>
       </c>
       <c r="O16">
-        <v>0.645</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="P16">
-        <v>2.469</v>
+        <v>2.4689999999999999</v>
       </c>
       <c r="Q16">
-        <v>0.405</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="R16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2648,22 +2671,22 @@
         <v>42.878</v>
       </c>
       <c r="N17">
-        <v>31.595</v>
+        <v>31.594999999999999</v>
       </c>
       <c r="O17">
-        <v>0.767</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="P17">
         <v>1.357</v>
       </c>
       <c r="Q17">
-        <v>0.737</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="R17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2674,7 +2697,7 @@
         <v>11325</v>
       </c>
       <c r="F18">
-        <v>37.696</v>
+        <v>37.695999999999998</v>
       </c>
       <c r="G18">
         <v>10</v>
@@ -2695,16 +2718,16 @@
         <v>151</v>
       </c>
       <c r="M18">
-        <v>170.385</v>
+        <v>170.38499999999999</v>
       </c>
       <c r="N18">
         <v>84.628</v>
       </c>
       <c r="O18">
-        <v>0.697</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="P18">
-        <v>2.013</v>
+        <v>2.0129999999999999</v>
       </c>
       <c r="Q18">
         <v>0.497</v>
@@ -2713,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2724,7 +2747,7 @@
         <v>2773</v>
       </c>
       <c r="F19">
-        <v>43.087</v>
+        <v>43.087000000000003</v>
       </c>
       <c r="G19">
         <v>13</v>
@@ -2745,25 +2768,25 @@
         <v>59</v>
       </c>
       <c r="M19">
-        <v>66.574</v>
+        <v>66.573999999999998</v>
       </c>
       <c r="N19">
-        <v>53.034</v>
+        <v>53.033999999999999</v>
       </c>
       <c r="O19">
-        <v>0.775</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="P19">
-        <v>1.255</v>
+        <v>1.2549999999999999</v>
       </c>
       <c r="Q19">
-        <v>0.797</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="R19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2774,7 +2797,7 @@
         <v>11648</v>
       </c>
       <c r="F20">
-        <v>35.508</v>
+        <v>35.508000000000003</v>
       </c>
       <c r="G20">
         <v>11</v>
@@ -2795,25 +2818,25 @@
         <v>91</v>
       </c>
       <c r="M20">
-        <v>144.433</v>
+        <v>144.43299999999999</v>
       </c>
       <c r="N20">
-        <v>102.683</v>
+        <v>102.68300000000001</v>
       </c>
       <c r="O20">
-        <v>0.763</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="P20">
         <v>1.407</v>
       </c>
       <c r="Q20">
-        <v>0.711</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="R20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2845,25 +2868,25 @@
         <v>36</v>
       </c>
       <c r="M21">
-        <v>58.676</v>
+        <v>58.676000000000002</v>
       </c>
       <c r="N21">
         <v>40.622</v>
       </c>
       <c r="O21">
-        <v>0.759</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="P21">
         <v>1.444</v>
       </c>
       <c r="Q21">
-        <v>0.6919999999999999</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="R21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2874,7 +2897,7 @@
         <v>12508</v>
       </c>
       <c r="F22">
-        <v>52.739</v>
+        <v>52.738999999999997</v>
       </c>
       <c r="G22">
         <v>31</v>
@@ -2901,19 +2924,19 @@
         <v>119.608</v>
       </c>
       <c r="O22">
-        <v>0.783</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="P22">
         <v>1.113</v>
       </c>
       <c r="Q22">
-        <v>0.898</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="R22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2924,7 +2947,7 @@
         <v>9523</v>
       </c>
       <c r="F23">
-        <v>75.651</v>
+        <v>75.650999999999996</v>
       </c>
       <c r="G23">
         <v>51</v>
@@ -2945,25 +2968,25 @@
         <v>89</v>
       </c>
       <c r="M23">
-        <v>120.737</v>
+        <v>120.73699999999999</v>
       </c>
       <c r="N23">
         <v>100.426</v>
       </c>
       <c r="O23">
-        <v>0.779</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="P23">
         <v>1.202</v>
       </c>
       <c r="Q23">
-        <v>0.832</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="R23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2974,7 +2997,7 @@
         <v>9408</v>
       </c>
       <c r="F24">
-        <v>77.208</v>
+        <v>77.207999999999998</v>
       </c>
       <c r="G24">
         <v>43</v>
@@ -3001,10 +3024,10 @@
         <v>108.324</v>
       </c>
       <c r="O24">
-        <v>0.785</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="P24">
-        <v>1.021</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="Q24">
         <v>0.98</v>
@@ -3013,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3024,7 +3047,7 @@
         <v>4680</v>
       </c>
       <c r="F25">
-        <v>35.475</v>
+        <v>35.475000000000001</v>
       </c>
       <c r="G25">
         <v>14</v>
@@ -3045,19 +3068,19 @@
         <v>72</v>
       </c>
       <c r="M25">
-        <v>81.24299999999999</v>
+        <v>81.242999999999995</v>
       </c>
       <c r="N25">
-        <v>73.345</v>
+        <v>73.344999999999999</v>
       </c>
       <c r="O25">
-        <v>0.783</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="P25">
-        <v>1.108</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="Q25">
-        <v>0.903</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="R25">
         <v>1</v>
@@ -3069,14 +3092,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -3127,6 +3152,59 @@
       </c>
       <c r="Q1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>898800</v>
+      </c>
+      <c r="D2">
+        <v>104.379</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>233</v>
+      </c>
+      <c r="G2">
+        <v>3155</v>
+      </c>
+      <c r="H2">
+        <v>2187</v>
+      </c>
+      <c r="I2">
+        <v>1070</v>
+      </c>
+      <c r="J2">
+        <v>840</v>
+      </c>
+      <c r="K2">
+        <v>1207.366</v>
+      </c>
+      <c r="L2">
+        <v>947.83900000000006</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="O2">
+        <v>1.274</v>
+      </c>
+      <c r="P2">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
